--- a/dre.xlsx
+++ b/dre.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Descrição</t>
   </si>
   <si>
     <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Av</t>
   </si>
   <si>
     <t>Fevereiro</t>
@@ -479,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,177 +496,807 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>423.2</v>
+      </c>
+      <c r="C2">
+        <v>456.95</v>
+      </c>
+      <c r="D2">
+        <v>279.9</v>
+      </c>
+      <c r="E2">
+        <v>67.3</v>
+      </c>
+      <c r="F2">
+        <v>1328.75</v>
+      </c>
+      <c r="G2">
+        <v>742.5</v>
+      </c>
+      <c r="H2">
+        <v>383.2</v>
+      </c>
+      <c r="I2">
+        <v>1048.95</v>
+      </c>
+      <c r="J2">
+        <v>985.5999999999998</v>
+      </c>
+      <c r="K2">
+        <v>617.0500000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>423.2</v>
+      </c>
+      <c r="C4">
+        <v>456.95</v>
+      </c>
+      <c r="D4">
+        <v>279.9</v>
+      </c>
+      <c r="E4">
+        <v>67.3</v>
+      </c>
+      <c r="F4">
+        <v>1328.75</v>
+      </c>
+      <c r="G4">
+        <v>742.5</v>
+      </c>
+      <c r="H4">
+        <v>383.2</v>
+      </c>
+      <c r="I4">
+        <v>1048.95</v>
+      </c>
+      <c r="J4">
+        <v>985.5999999999998</v>
+      </c>
+      <c r="K4">
+        <v>617.0500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>339.94</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>701.85</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>782.75</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>339.94</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>701.85</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>782.75</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>323.2</v>
+      </c>
+      <c r="C7">
+        <v>117.01</v>
+      </c>
+      <c r="D7">
+        <v>279.9</v>
+      </c>
+      <c r="E7">
+        <v>17.3</v>
+      </c>
+      <c r="F7">
+        <v>626.9</v>
+      </c>
+      <c r="G7">
+        <v>742.5</v>
+      </c>
+      <c r="H7">
+        <v>283.2</v>
+      </c>
+      <c r="I7">
+        <v>266.1999999999998</v>
+      </c>
+      <c r="J7">
+        <v>985.5999999999998</v>
+      </c>
+      <c r="K7">
+        <v>617.0500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>95.78399999999999</v>
+      </c>
+      <c r="C8">
+        <v>99.834</v>
+      </c>
+      <c r="D8">
+        <v>78.58799999999999</v>
+      </c>
+      <c r="E8">
+        <v>53.076</v>
+      </c>
+      <c r="F8">
+        <v>204.45</v>
+      </c>
+      <c r="G8">
+        <v>134.1</v>
+      </c>
+      <c r="H8">
+        <v>90.98399999999999</v>
+      </c>
+      <c r="I8">
+        <v>170.874</v>
+      </c>
+      <c r="J8">
+        <v>163.272</v>
+      </c>
+      <c r="K8">
+        <v>119.046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>50.784</v>
+      </c>
+      <c r="C9">
+        <v>54.834</v>
+      </c>
+      <c r="D9">
+        <v>33.588</v>
+      </c>
+      <c r="E9">
+        <v>8.075999999999999</v>
+      </c>
+      <c r="F9">
+        <v>159.45</v>
+      </c>
+      <c r="G9">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H9">
+        <v>45.98399999999999</v>
+      </c>
+      <c r="I9">
+        <v>125.874</v>
+      </c>
+      <c r="J9">
+        <v>118.272</v>
+      </c>
+      <c r="K9">
+        <v>74.04600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>46.5</v>
+      </c>
+      <c r="C11">
+        <v>46.5</v>
+      </c>
+      <c r="D11">
+        <v>46.5</v>
+      </c>
+      <c r="E11">
+        <v>46.5</v>
+      </c>
+      <c r="F11">
+        <v>46.5</v>
+      </c>
+      <c r="G11">
+        <v>46.5</v>
+      </c>
+      <c r="H11">
+        <v>46.5</v>
+      </c>
+      <c r="I11">
+        <v>46.5</v>
+      </c>
+      <c r="J11">
+        <v>46.5</v>
+      </c>
+      <c r="K11">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="C14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J14">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="K14">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="C15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J15">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K15">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>151</v>
+      </c>
+      <c r="D17">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>151</v>
+      </c>
+      <c r="F17">
+        <v>151</v>
+      </c>
+      <c r="G17">
+        <v>151</v>
+      </c>
+      <c r="H17">
+        <v>151</v>
+      </c>
+      <c r="I17">
+        <v>151</v>
+      </c>
+      <c r="J17">
+        <v>151</v>
+      </c>
+      <c r="K17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>150</v>
+      </c>
+      <c r="I18">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>150</v>
+      </c>
+      <c r="K18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>331.916</v>
+      </c>
+      <c r="C20">
+        <v>121.676</v>
+      </c>
+      <c r="D20">
+        <v>305.812</v>
+      </c>
+      <c r="E20">
+        <v>68.72399999999999</v>
+      </c>
+      <c r="F20">
+        <v>526.95</v>
+      </c>
+      <c r="G20">
+        <v>712.9</v>
+      </c>
+      <c r="H20">
+        <v>296.716</v>
+      </c>
+      <c r="I20">
+        <v>199.8259999999999</v>
+      </c>
+      <c r="J20">
+        <v>926.8279999999997</v>
+      </c>
+      <c r="K20">
+        <v>602.5040000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>35</v>
+      <c r="B23">
+        <v>331.916</v>
+      </c>
+      <c r="C23">
+        <v>121.676</v>
+      </c>
+      <c r="D23">
+        <v>305.812</v>
+      </c>
+      <c r="E23">
+        <v>68.72399999999999</v>
+      </c>
+      <c r="F23">
+        <v>526.95</v>
+      </c>
+      <c r="G23">
+        <v>712.9</v>
+      </c>
+      <c r="H23">
+        <v>296.716</v>
+      </c>
+      <c r="I23">
+        <v>199.8259999999999</v>
+      </c>
+      <c r="J23">
+        <v>926.8279999999997</v>
+      </c>
+      <c r="K23">
+        <v>602.5040000000001</v>
       </c>
     </row>
   </sheetData>
